--- a/pincode_bangalore.xlsx
+++ b/pincode_bangalore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,11 +466,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>560064</t>
+          <t>560062</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -484,11 +484,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>560063</t>
+          <t>560061</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -498,15 +498,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>560019</t>
+          <t>560076</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5">
@@ -516,15 +516,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>560018</t>
+          <t>560078</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -534,15 +534,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>560026</t>
+          <t>560109</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -552,15 +552,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>560027</t>
+          <t>560108</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -570,15 +570,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>560041</t>
+          <t>560083</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -592,11 +592,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>560084</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -610,11 +610,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>560069</t>
+          <t>560032</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -628,11 +628,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>560078</t>
+          <t>560043</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -646,11 +646,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>560085</t>
+          <t>560113</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -664,11 +664,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>560004</t>
+          <t>560024</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -682,11 +682,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>560050</t>
+          <t>560045</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -700,11 +700,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>560053</t>
+          <t>560092</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>560002</t>
+          <t>560099</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -732,15 +732,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>560011</t>
+          <t>560035</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -754,11 +754,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>560040</t>
+          <t>560100</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
@@ -772,11 +772,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>560072</t>
+          <t>560102</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -790,11 +790,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>560079</t>
+          <t>560103</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -808,11 +808,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>560059</t>
+          <t>560068</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -822,15 +822,15 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>560091</t>
+          <t>560054</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
@@ -840,15 +840,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>560039</t>
+          <t>560058</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -858,15 +858,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>560056</t>
+          <t>560057</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -876,15 +876,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>560058</t>
+          <t>560094</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -894,15 +894,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>560086</t>
+          <t>560022</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -912,15 +912,15 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>560104</t>
+          <t>560096</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>560110</t>
+          <t>560090</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>560096</t>
+          <t>560015</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -970,11 +970,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>560087</t>
+          <t>560013</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -988,11 +988,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>560048</t>
+          <t>560014</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1006,11 +1006,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>560103</t>
+          <t>560097</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>190</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -1020,15 +1020,15 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>560066</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -1038,15 +1038,15 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>560037</t>
+          <t>560011</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>270</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>560098</t>
+          <t>560002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>560108</t>
+          <t>560004</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>560109</t>
+          <t>560019</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>560083</t>
+          <t>560050</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>560061</t>
+          <t>560069</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>560062</t>
+          <t>560018</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>560094</t>
+          <t>560041</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -1182,15 +1182,15 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>560092</t>
+          <t>560030</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>560024</t>
+          <t>560029</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -1218,15 +1218,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>560065</t>
+          <t>560027</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
@@ -1236,15 +1236,15 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>560097</t>
+          <t>560026</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -1254,15 +1254,15 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>560022</t>
+          <t>560085</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>560054</t>
+          <t>560104</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>560013</t>
+          <t>560110</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>560057</t>
+          <t>560079</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>560015</t>
+          <t>560098</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>560014</t>
+          <t>560072</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -1362,15 +1362,15 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>560038</t>
+          <t>560091</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
@@ -1380,15 +1380,15 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>560033</t>
+          <t>560056</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -1398,15 +1398,15 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>560008</t>
+          <t>560059</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1416,15 +1416,15 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>560113</t>
+          <t>560039</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1434,15 +1434,15 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>560084</t>
+          <t>560040</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
@@ -1456,11 +1456,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>560042</t>
+          <t>560065</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>560005</t>
+          <t>560064</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>34</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>560043</t>
+          <t>560063</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>560045</t>
+          <t>560087</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>560036</t>
+          <t>560016</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -1542,15 +1542,15 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>560075</t>
+          <t>560048</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
@@ -1560,15 +1560,15 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>560093</t>
+          <t>560036</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>560100</t>
+          <t>560037</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>179</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>560035</t>
+          <t>560066</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66">
@@ -1614,15 +1614,15 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>560099</t>
+          <t>560021</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1636,11 +1636,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>560102</t>
+          <t>560001</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>137</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>560007</t>
+          <t>560003</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>560017</t>
+          <t>560046</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -1690,11 +1690,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>560095</t>
+          <t>560051</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>560025</t>
+          <t>560009</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>560068</t>
+          <t>560010</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>206</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -1744,11 +1744,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>560034</t>
+          <t>560012</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -1762,11 +1762,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>560030</t>
+          <t>560020</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -1780,11 +1780,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>560076</t>
+          <t>560023</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -1798,11 +1798,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>560029</t>
+          <t>560055</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>560047</t>
+          <t>560053</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>560071</t>
+          <t>560080</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1848,15 +1848,15 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>560023</t>
+          <t>560086</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -1866,15 +1866,15 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>560051</t>
+          <t>560052</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>560021</t>
+          <t>560075</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
@@ -1906,11 +1906,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>560032</t>
+          <t>560017</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
@@ -1924,11 +1924,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>560080</t>
+          <t>560047</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84">
@@ -1942,11 +1942,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>560009</t>
+          <t>560005</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -1960,11 +1960,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>560046</t>
+          <t>560042</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -1978,11 +1978,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>560010</t>
+          <t>560007</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1996,11 +1996,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>560003</t>
+          <t>560038</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>560012</t>
+          <t>560093</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>560020</t>
+          <t>560034</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>560001</t>
+          <t>560095</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>560052</t>
+          <t>560033</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -2086,11 +2086,47 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>560055</t>
+          <t>560025</t>
         </is>
       </c>
       <c r="D92" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
         <v>10</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>560008</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>10</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>560071</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
